--- a/Voelkenrath/Auswertung_versch_MC_und_Thresholds.xlsx
+++ b/Voelkenrath/Auswertung_versch_MC_und_Thresholds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>min_count</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>unique_keys</t>
+  </si>
+  <si>
+    <t>model_token_number</t>
+  </si>
+  <si>
+    <t>unique_len_all_concepts_found</t>
   </si>
   <si>
     <t>methanation_only_text_mc1</t>
@@ -395,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,13 +420,19 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -431,13 +443,19 @@
       <c r="E2">
         <v>396</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>4170</v>
+      </c>
+      <c r="G2">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0.9</v>
@@ -448,13 +466,19 @@
       <c r="E3">
         <v>352</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>4170</v>
+      </c>
+      <c r="G3">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0.95</v>
@@ -465,13 +489,19 @@
       <c r="E4">
         <v>315</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>4170</v>
+      </c>
+      <c r="G4">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0.99</v>
@@ -482,13 +512,19 @@
       <c r="E5">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>4170</v>
+      </c>
+      <c r="G5">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>0.995</v>
@@ -499,13 +535,19 @@
       <c r="E6">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>4170</v>
+      </c>
+      <c r="G6">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0.999</v>
@@ -516,13 +558,19 @@
       <c r="E7">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>4170</v>
+      </c>
+      <c r="G7">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0.8</v>
@@ -533,13 +581,19 @@
       <c r="E8">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>861</v>
+      </c>
+      <c r="G8">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0.9</v>
@@ -550,13 +604,19 @@
       <c r="E9">
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>861</v>
+      </c>
+      <c r="G9">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>0.95</v>
@@ -567,13 +627,19 @@
       <c r="E10">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>861</v>
+      </c>
+      <c r="G10">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>0.99</v>
@@ -584,13 +650,19 @@
       <c r="E11">
         <v>147</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>861</v>
+      </c>
+      <c r="G11">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>0.995</v>
@@ -601,13 +673,19 @@
       <c r="E12">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>861</v>
+      </c>
+      <c r="G12">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>0.999</v>
@@ -618,13 +696,19 @@
       <c r="E13">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>861</v>
+      </c>
+      <c r="G13">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>0.8</v>
@@ -635,13 +719,19 @@
       <c r="E14">
         <v>129</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>525</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>0.9</v>
@@ -652,13 +742,19 @@
       <c r="E15">
         <v>129</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>525</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>0.95</v>
@@ -669,13 +765,19 @@
       <c r="E16">
         <v>129</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>525</v>
+      </c>
+      <c r="G16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0.99</v>
@@ -686,13 +788,19 @@
       <c r="E17">
         <v>129</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>525</v>
+      </c>
+      <c r="G17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>0.995</v>
@@ -703,13 +811,19 @@
       <c r="E18">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>525</v>
+      </c>
+      <c r="G18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>0.999</v>
@@ -720,13 +834,19 @@
       <c r="E19">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>525</v>
+      </c>
+      <c r="G19">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>0.8</v>
@@ -737,13 +857,19 @@
       <c r="E20">
         <v>122</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>276</v>
+      </c>
+      <c r="G20">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>0.9</v>
@@ -754,13 +880,19 @@
       <c r="E21">
         <v>122</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>276</v>
+      </c>
+      <c r="G21">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>0.95</v>
@@ -771,13 +903,19 @@
       <c r="E22">
         <v>122</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>276</v>
+      </c>
+      <c r="G22">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>0.99</v>
@@ -788,13 +926,19 @@
       <c r="E23">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>276</v>
+      </c>
+      <c r="G23">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>0.995</v>
@@ -805,13 +949,19 @@
       <c r="E24">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>276</v>
+      </c>
+      <c r="G24">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>0.999</v>
@@ -822,13 +972,19 @@
       <c r="E25">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>276</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>0.8</v>
@@ -839,13 +995,19 @@
       <c r="E26">
         <v>122</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>276</v>
+      </c>
+      <c r="G26">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>0.9</v>
@@ -856,13 +1018,19 @@
       <c r="E27">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>276</v>
+      </c>
+      <c r="G27">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>0.95</v>
@@ -873,13 +1041,19 @@
       <c r="E28">
         <v>122</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>276</v>
+      </c>
+      <c r="G28">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>0.99</v>
@@ -890,13 +1064,19 @@
       <c r="E29">
         <v>122</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>276</v>
+      </c>
+      <c r="G29">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>0.995</v>
@@ -907,13 +1087,19 @@
       <c r="E30">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>276</v>
+      </c>
+      <c r="G30">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>0.999</v>
@@ -923,6 +1109,12 @@
       </c>
       <c r="E31">
         <v>114</v>
+      </c>
+      <c r="F31">
+        <v>276</v>
+      </c>
+      <c r="G31">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Voelkenrath/Auswertung_versch_MC_und_Thresholds.xlsx
+++ b/Voelkenrath/Auswertung_versch_MC_und_Thresholds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>min_count</t>
   </si>
@@ -37,10 +37,73 @@
     <t>methanation_only_text_mc1</t>
   </si>
   <si>
+    <t>methanation_only_text_mc2</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc3</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc4</t>
+  </si>
+  <si>
     <t>methanation_only_text_mc5</t>
   </si>
   <si>
+    <t>methanation_only_text_mc6</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc7</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc8</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc9</t>
+  </si>
+  <si>
     <t>methanation_only_text_mc10</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc11</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc12</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc13</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc14</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc15</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc16</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc17</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc18</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc19</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc20</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc21</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc22</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc23</t>
+  </si>
+  <si>
+    <t>methanation_only_text_mc24</t>
   </si>
   <si>
     <t>methanation_only_text_mc25</t>
@@ -401,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,19 +498,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.999</v>
       </c>
       <c r="D2">
-        <v>317</v>
+        <v>73</v>
       </c>
       <c r="E2">
-        <v>396</v>
+        <v>103</v>
       </c>
       <c r="F2">
         <v>4170</v>
       </c>
       <c r="G2">
-        <v>1075</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,19 +521,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="D3">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="F3">
         <v>4170</v>
       </c>
       <c r="G3">
-        <v>1030</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,19 +544,19 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>4170</v>
       </c>
       <c r="G4">
-        <v>982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,22 +564,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0.99</v>
+        <v>0.999</v>
       </c>
       <c r="D5">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="E5">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="F5">
-        <v>4170</v>
+        <v>1879</v>
       </c>
       <c r="G5">
-        <v>765</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -524,22 +587,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>0.995</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E6">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="F6">
-        <v>4170</v>
+        <v>1879</v>
       </c>
       <c r="G6">
-        <v>710</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -547,22 +610,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4170</v>
+        <v>1879</v>
       </c>
       <c r="G7">
-        <v>485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -570,22 +633,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>0.8</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E8">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="F8">
-        <v>861</v>
+        <v>1297</v>
       </c>
       <c r="G8">
-        <v>670</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -593,22 +656,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>0.9</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="D9">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="E9">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="F9">
-        <v>861</v>
+        <v>1297</v>
       </c>
       <c r="G9">
-        <v>670</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -616,22 +679,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>861</v>
+        <v>1297</v>
       </c>
       <c r="G10">
-        <v>670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -639,22 +702,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>0.99</v>
+        <v>0.999</v>
       </c>
       <c r="D11">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E11">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="F11">
-        <v>861</v>
+        <v>1027</v>
       </c>
       <c r="G11">
-        <v>665</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -662,22 +725,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>0.995</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="D12">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E12">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="F12">
-        <v>861</v>
+        <v>1027</v>
       </c>
       <c r="G12">
-        <v>660</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -685,22 +748,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>861</v>
+        <v>1027</v>
       </c>
       <c r="G13">
-        <v>472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -708,22 +771,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>0.8</v>
+        <v>0.999</v>
       </c>
       <c r="D14">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E14">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="F14">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="G14">
-        <v>500</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -731,22 +794,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>0.9</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="D15">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E15">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="F15">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="G15">
-        <v>500</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -754,22 +817,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>525</v>
+        <v>861</v>
       </c>
       <c r="G16">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -777,22 +840,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>0.99</v>
+        <v>0.999</v>
       </c>
       <c r="D17">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E17">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F17">
-        <v>525</v>
+        <v>765</v>
       </c>
       <c r="G17">
-        <v>500</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -800,22 +863,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>0.995</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="D18">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E18">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="F18">
-        <v>525</v>
+        <v>765</v>
       </c>
       <c r="G18">
-        <v>500</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -823,22 +886,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>525</v>
+        <v>765</v>
       </c>
       <c r="G19">
-        <v>443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -846,22 +909,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>0.8</v>
+        <v>0.999</v>
       </c>
       <c r="D20">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E20">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F20">
-        <v>276</v>
+        <v>694</v>
       </c>
       <c r="G20">
-        <v>315</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -869,22 +932,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>0.9</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="D21">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="E21">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F21">
-        <v>276</v>
+        <v>694</v>
       </c>
       <c r="G21">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -892,22 +955,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>276</v>
+        <v>694</v>
       </c>
       <c r="G22">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -915,22 +978,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>0.99</v>
+        <v>0.999</v>
       </c>
       <c r="D23">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E23">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F23">
-        <v>276</v>
+        <v>633</v>
       </c>
       <c r="G23">
-        <v>315</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -938,22 +1001,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>0.995</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="D24">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E24">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F24">
-        <v>276</v>
+        <v>633</v>
       </c>
       <c r="G24">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -961,22 +1024,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>276</v>
+        <v>633</v>
       </c>
       <c r="G25">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -984,22 +1047,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>0.8</v>
+        <v>0.999</v>
       </c>
       <c r="D26">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E26">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F26">
-        <v>276</v>
+        <v>578</v>
       </c>
       <c r="G26">
-        <v>315</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1007,22 +1070,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>0.9</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="D27">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E27">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F27">
+        <v>578</v>
+      </c>
+      <c r="G27">
         <v>276</v>
-      </c>
-      <c r="G27">
-        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1030,22 +1093,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>276</v>
+        <v>578</v>
       </c>
       <c r="G28">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1053,10 +1116,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>0.99</v>
+        <v>0.999</v>
       </c>
       <c r="D29">
         <v>91</v>
@@ -1065,10 +1128,10 @@
         <v>122</v>
       </c>
       <c r="F29">
-        <v>276</v>
+        <v>525</v>
       </c>
       <c r="G29">
-        <v>315</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1076,22 +1139,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C30">
-        <v>0.995</v>
+        <v>0.9995000000000001</v>
       </c>
       <c r="D30">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E30">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F30">
-        <v>276</v>
+        <v>525</v>
       </c>
       <c r="G30">
-        <v>315</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1099,22 +1162,1057 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>525</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>0.999</v>
+      </c>
+      <c r="D32">
+        <v>87</v>
+      </c>
+      <c r="E32">
+        <v>119</v>
+      </c>
+      <c r="F32">
+        <v>495</v>
+      </c>
+      <c r="G32">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D33">
+        <v>62</v>
+      </c>
+      <c r="E33">
+        <v>86</v>
+      </c>
+      <c r="F33">
+        <v>495</v>
+      </c>
+      <c r="G33">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>495</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>0.999</v>
+      </c>
+      <c r="D35">
         <v>88</v>
       </c>
-      <c r="E31">
-        <v>114</v>
-      </c>
-      <c r="F31">
+      <c r="E35">
+        <v>120</v>
+      </c>
+      <c r="F35">
+        <v>471</v>
+      </c>
+      <c r="G35">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D36">
+        <v>63</v>
+      </c>
+      <c r="E36">
+        <v>86</v>
+      </c>
+      <c r="F36">
+        <v>471</v>
+      </c>
+      <c r="G36">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>471</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>0.999</v>
+      </c>
+      <c r="D38">
+        <v>90</v>
+      </c>
+      <c r="E38">
+        <v>120</v>
+      </c>
+      <c r="F38">
+        <v>443</v>
+      </c>
+      <c r="G38">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D39">
+        <v>61</v>
+      </c>
+      <c r="E39">
+        <v>82</v>
+      </c>
+      <c r="F39">
+        <v>443</v>
+      </c>
+      <c r="G39">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>443</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>0.999</v>
+      </c>
+      <c r="D41">
+        <v>81</v>
+      </c>
+      <c r="E41">
+        <v>115</v>
+      </c>
+      <c r="F41">
+        <v>422</v>
+      </c>
+      <c r="G41">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D42">
+        <v>55</v>
+      </c>
+      <c r="E42">
+        <v>77</v>
+      </c>
+      <c r="F42">
+        <v>422</v>
+      </c>
+      <c r="G42">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>422</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>0.999</v>
+      </c>
+      <c r="D44">
+        <v>78</v>
+      </c>
+      <c r="E44">
+        <v>106</v>
+      </c>
+      <c r="F44">
+        <v>404</v>
+      </c>
+      <c r="G44">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D45">
+        <v>55</v>
+      </c>
+      <c r="E45">
+        <v>74</v>
+      </c>
+      <c r="F45">
+        <v>404</v>
+      </c>
+      <c r="G45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>404</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>0.999</v>
+      </c>
+      <c r="D47">
+        <v>90</v>
+      </c>
+      <c r="E47">
+        <v>123</v>
+      </c>
+      <c r="F47">
+        <v>385</v>
+      </c>
+      <c r="G47">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>67</v>
+      </c>
+      <c r="F48">
+        <v>385</v>
+      </c>
+      <c r="G48">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>385</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>0.999</v>
+      </c>
+      <c r="D50">
+        <v>95</v>
+      </c>
+      <c r="E50">
+        <v>126</v>
+      </c>
+      <c r="F50">
+        <v>371</v>
+      </c>
+      <c r="G50">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D51">
+        <v>54</v>
+      </c>
+      <c r="E51">
+        <v>71</v>
+      </c>
+      <c r="F51">
+        <v>371</v>
+      </c>
+      <c r="G51">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>371</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53">
+        <v>0.999</v>
+      </c>
+      <c r="D53">
+        <v>88</v>
+      </c>
+      <c r="E53">
+        <v>120</v>
+      </c>
+      <c r="F53">
+        <v>355</v>
+      </c>
+      <c r="G53">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D54">
+        <v>42</v>
+      </c>
+      <c r="E54">
+        <v>65</v>
+      </c>
+      <c r="F54">
+        <v>355</v>
+      </c>
+      <c r="G54">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>355</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>0.999</v>
+      </c>
+      <c r="D56">
+        <v>94</v>
+      </c>
+      <c r="E56">
+        <v>124</v>
+      </c>
+      <c r="F56">
+        <v>345</v>
+      </c>
+      <c r="G56">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57">
+        <v>67</v>
+      </c>
+      <c r="F57">
+        <v>345</v>
+      </c>
+      <c r="G57">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>345</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>0.999</v>
+      </c>
+      <c r="D59">
+        <v>94</v>
+      </c>
+      <c r="E59">
+        <v>126</v>
+      </c>
+      <c r="F59">
+        <v>333</v>
+      </c>
+      <c r="G59">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D60">
+        <v>51</v>
+      </c>
+      <c r="E60">
+        <v>65</v>
+      </c>
+      <c r="F60">
+        <v>333</v>
+      </c>
+      <c r="G60">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>333</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62">
+        <v>0.999</v>
+      </c>
+      <c r="D62">
+        <v>91</v>
+      </c>
+      <c r="E62">
+        <v>118</v>
+      </c>
+      <c r="F62">
+        <v>316</v>
+      </c>
+      <c r="G62">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D63">
+        <v>30</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <v>316</v>
+      </c>
+      <c r="G63">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>316</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65">
+        <v>0.999</v>
+      </c>
+      <c r="D65">
+        <v>82</v>
+      </c>
+      <c r="E65">
+        <v>111</v>
+      </c>
+      <c r="F65">
+        <v>304</v>
+      </c>
+      <c r="G65">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D66">
+        <v>31</v>
+      </c>
+      <c r="E66">
+        <v>41</v>
+      </c>
+      <c r="F66">
+        <v>304</v>
+      </c>
+      <c r="G66">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>304</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68">
+        <v>0.999</v>
+      </c>
+      <c r="D68">
+        <v>85</v>
+      </c>
+      <c r="E68">
+        <v>115</v>
+      </c>
+      <c r="F68">
+        <v>295</v>
+      </c>
+      <c r="G68">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D69">
+        <v>30</v>
+      </c>
+      <c r="E69">
+        <v>37</v>
+      </c>
+      <c r="F69">
+        <v>295</v>
+      </c>
+      <c r="G69">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>295</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71">
+        <v>0.999</v>
+      </c>
+      <c r="D71">
+        <v>80</v>
+      </c>
+      <c r="E71">
+        <v>109</v>
+      </c>
+      <c r="F71">
+        <v>282</v>
+      </c>
+      <c r="G71">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D72">
+        <v>26</v>
+      </c>
+      <c r="E72">
+        <v>35</v>
+      </c>
+      <c r="F72">
+        <v>282</v>
+      </c>
+      <c r="G72">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>282</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>0.999</v>
+      </c>
+      <c r="D74">
+        <v>87</v>
+      </c>
+      <c r="E74">
+        <v>113</v>
+      </c>
+      <c r="F74">
         <v>276</v>
       </c>
-      <c r="G31">
-        <v>300</v>
+      <c r="G74">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="D75">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
+      <c r="F75">
+        <v>276</v>
+      </c>
+      <c r="G75">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>276</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
